--- a/master/StructureDefinition-bc-practitioner-bundle.xlsx
+++ b/master/StructureDefinition-bc-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:17:34+00:00</t>
+    <t>2024-07-03T22:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/StructureDefinition-bc-practitioner-bundle.xlsx
+++ b/master/StructureDefinition-bc-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:37:23+00:00</t>
+    <t>2024-09-27T21:23:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/master/StructureDefinition-bc-practitioner-bundle.xlsx
+++ b/master/StructureDefinition-bc-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T21:23:15+00:00</t>
+    <t>2024-10-18T22:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
